--- a/files/employee-details.xlsx
+++ b/files/employee-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mohankumar\projects-important\post-office-management-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E4DF8-2262-4B96-AA73-7F336D955E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE3F330-911D-47C3-B3DE-7CC65B38E6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,9 +318,6 @@
     <t>Pavithra</t>
   </si>
   <si>
-    <t>MSubbulapuram</t>
-  </si>
-  <si>
     <t>Manikandan</t>
   </si>
   <si>
@@ -745,6 +742,9 @@
   </si>
   <si>
     <t>JariUsilampatti</t>
+  </si>
+  <si>
+    <t>M Subbulapuram</t>
   </si>
 </sst>
 </file>
@@ -1585,11 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,25 +1603,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1650,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2011,10 +2010,10 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2280,7 +2279,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2490,7 +2489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2557,66 +2556,66 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>96</v>
       </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>99</v>
       </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2627,38 +2626,38 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
         <v>102</v>
       </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2669,94 +2668,94 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>104</v>
       </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
         <v>106</v>
       </c>
-      <c r="C78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
         <v>109</v>
       </c>
-      <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
         <v>112</v>
       </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2767,136 +2766,136 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
         <v>114</v>
       </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
         <v>117</v>
       </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
         <v>120</v>
       </c>
-      <c r="C88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
         <v>123</v>
       </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
         <v>126</v>
       </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2907,52 +2906,52 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
         <v>128</v>
       </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
         <v>131</v>
       </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2963,10 +2962,10 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2977,304 +2976,304 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
         <v>135</v>
       </c>
-      <c r="C100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
         <v>139</v>
       </c>
-      <c r="C103" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
         <v>142</v>
       </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
         <v>145</v>
       </c>
-      <c r="C107" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
         <v>147</v>
       </c>
-      <c r="C108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
         <v>150</v>
       </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
         <v>155</v>
       </c>
-      <c r="C114" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
         <v>158</v>
       </c>
-      <c r="C116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
         <v>160</v>
       </c>
-      <c r="C117" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
         <v>163</v>
       </c>
-      <c r="C119" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3285,38 +3284,38 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
         <v>165</v>
       </c>
-      <c r="C121" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3324,94 +3323,94 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
         <v>168</v>
       </c>
-      <c r="C124" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
         <v>171</v>
       </c>
-      <c r="C126" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
         <v>174</v>
       </c>
-      <c r="C128" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3422,164 +3421,164 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
         <v>177</v>
       </c>
-      <c r="C131" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
         <v>179</v>
       </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
         <v>182</v>
       </c>
-      <c r="C134" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
         <v>184</v>
       </c>
-      <c r="C135" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" t="s">
         <v>187</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>188</v>
       </c>
-      <c r="D137" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" t="s">
+        <v>187</v>
+      </c>
+      <c r="D138" t="s">
         <v>190</v>
       </c>
-      <c r="C138" t="s">
-        <v>188</v>
-      </c>
-      <c r="D138" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" t="s">
+        <v>187</v>
+      </c>
+      <c r="D139" t="s">
         <v>192</v>
       </c>
-      <c r="C139" t="s">
-        <v>188</v>
-      </c>
-      <c r="D139" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D140" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" t="s">
+        <v>187</v>
+      </c>
+      <c r="D141" t="s">
         <v>194</v>
       </c>
-      <c r="C141" t="s">
-        <v>188</v>
-      </c>
-      <c r="D141" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3587,265 +3586,265 @@
         <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D142" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" t="s">
+        <v>187</v>
+      </c>
+      <c r="D143" t="s">
         <v>196</v>
       </c>
-      <c r="C143" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D144" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" t="s">
+        <v>187</v>
+      </c>
+      <c r="D145" t="s">
         <v>199</v>
       </c>
-      <c r="C145" t="s">
-        <v>188</v>
-      </c>
-      <c r="D145" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
+        <v>187</v>
+      </c>
+      <c r="D146" t="s">
         <v>201</v>
       </c>
-      <c r="C146" t="s">
-        <v>188</v>
-      </c>
-      <c r="D146" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D147" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" t="s">
         <v>204</v>
       </c>
-      <c r="C148" t="s">
-        <v>188</v>
-      </c>
-      <c r="D148" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150" t="s">
+        <v>187</v>
+      </c>
+      <c r="D150" t="s">
         <v>207</v>
       </c>
-      <c r="C150" t="s">
-        <v>188</v>
-      </c>
-      <c r="D150" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D151" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>209</v>
+      </c>
+      <c r="C152" t="s">
+        <v>187</v>
+      </c>
+      <c r="D152" t="s">
         <v>210</v>
       </c>
-      <c r="C152" t="s">
-        <v>188</v>
-      </c>
-      <c r="D152" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D153" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" t="s">
+        <v>187</v>
+      </c>
+      <c r="D154" t="s">
         <v>213</v>
       </c>
-      <c r="C154" t="s">
-        <v>188</v>
-      </c>
-      <c r="D154" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D155" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D156" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D157" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D158" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D160" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3853,104 +3852,98 @@
         <v>18</v>
       </c>
       <c r="C161" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D161" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" t="s">
+        <v>187</v>
+      </c>
+      <c r="D162" t="s">
         <v>221</v>
       </c>
-      <c r="C162" t="s">
-        <v>188</v>
-      </c>
-      <c r="D162" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D163" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>223</v>
+      </c>
+      <c r="C164" t="s">
+        <v>187</v>
+      </c>
+      <c r="D164" t="s">
         <v>224</v>
       </c>
-      <c r="C164" t="s">
-        <v>188</v>
-      </c>
-      <c r="D164" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>225</v>
+      </c>
+      <c r="C165" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" t="s">
         <v>226</v>
       </c>
-      <c r="C165" t="s">
-        <v>188</v>
-      </c>
-      <c r="D165" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" t="s">
         <v>187</v>
       </c>
-      <c r="C166" t="s">
-        <v>188</v>
-      </c>
       <c r="D166" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D167" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D167" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Jari Usilampatti"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:D167" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>